--- a/TAWalletAutomation/excel/TestData.xlsx
+++ b/TAWalletAutomation/excel/TestData.xlsx
@@ -24,7 +24,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Abc@admin0</t>
+    <t>Asdf@12345</t>
   </si>
 </sst>
 </file>
@@ -378,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -400,26 +400,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>9885184604</v>
+        <v>8970426018</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>897042</v>
-      </c>
-      <c r="B3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>6018</v>
-      </c>
-      <c r="B4">
-        <v>456</v>
       </c>
     </row>
   </sheetData>
